--- a/data/pca/factorExposure/factorExposure_2016-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01625691992601247</v>
+        <v>0.01294331666854647</v>
       </c>
       <c r="C2">
-        <v>-0.04616793267454567</v>
+        <v>0.0431741571733022</v>
       </c>
       <c r="D2">
-        <v>-0.0328935014243572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.058011521950765</v>
+      </c>
+      <c r="E2">
+        <v>-0.04910331799608201</v>
+      </c>
+      <c r="F2">
+        <v>0.08683119980638206</v>
+      </c>
+      <c r="G2">
+        <v>-0.0263165346924688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05837907257200415</v>
+        <v>0.03286388705275283</v>
       </c>
       <c r="C3">
-        <v>-0.09616484977204882</v>
+        <v>0.08377151743009441</v>
       </c>
       <c r="D3">
-        <v>-0.06803038468354734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09793320775214602</v>
+      </c>
+      <c r="E3">
+        <v>-0.07376661956251887</v>
+      </c>
+      <c r="F3">
+        <v>0.03102958190785396</v>
+      </c>
+      <c r="G3">
+        <v>0.05737644204763899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06397106838363435</v>
+        <v>0.05594991178185729</v>
       </c>
       <c r="C4">
-        <v>-0.05858257827153846</v>
+        <v>0.06322180515878112</v>
       </c>
       <c r="D4">
-        <v>-0.02061011619921644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05920903269329193</v>
+      </c>
+      <c r="E4">
+        <v>-0.04527456249221785</v>
+      </c>
+      <c r="F4">
+        <v>0.07800428311086544</v>
+      </c>
+      <c r="G4">
+        <v>0.04333638507225472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02799383743231472</v>
+        <v>0.0341222124069334</v>
       </c>
       <c r="C6">
-        <v>-0.04367705540176643</v>
+        <v>0.03612635799607938</v>
       </c>
       <c r="D6">
-        <v>-0.02260939999083434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06543201314356181</v>
+      </c>
+      <c r="E6">
+        <v>-0.05771482455802563</v>
+      </c>
+      <c r="F6">
+        <v>0.07027496156198647</v>
+      </c>
+      <c r="G6">
+        <v>0.02061992014645491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02382316259990757</v>
+        <v>0.01987403178640533</v>
       </c>
       <c r="C7">
-        <v>-0.03807061741259865</v>
+        <v>0.03569066793475514</v>
       </c>
       <c r="D7">
-        <v>0.007358554052764623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0382781676109154</v>
+      </c>
+      <c r="E7">
+        <v>-0.03254372042888123</v>
+      </c>
+      <c r="F7">
+        <v>0.1117809673375701</v>
+      </c>
+      <c r="G7">
+        <v>0.0126350018911604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002972131229290336</v>
+        <v>0.00455443431975814</v>
       </c>
       <c r="C8">
-        <v>-0.0118577328910778</v>
+        <v>0.0203407989038971</v>
       </c>
       <c r="D8">
-        <v>-0.0245799372811996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03614987737963735</v>
+      </c>
+      <c r="E8">
+        <v>-0.03443003434241907</v>
+      </c>
+      <c r="F8">
+        <v>0.05535607942702079</v>
+      </c>
+      <c r="G8">
+        <v>0.01099302954386568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02909244803668404</v>
+        <v>0.03526325441531344</v>
       </c>
       <c r="C9">
-        <v>-0.04011686164674439</v>
+        <v>0.04921590841477655</v>
       </c>
       <c r="D9">
-        <v>-0.01399076674116166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04331303761950837</v>
+      </c>
+      <c r="E9">
+        <v>-0.0379426004393889</v>
+      </c>
+      <c r="F9">
+        <v>0.08725155637845003</v>
+      </c>
+      <c r="G9">
+        <v>0.02720291633245501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07671843879013975</v>
+        <v>0.1017572572496018</v>
       </c>
       <c r="C10">
-        <v>0.1942049304577443</v>
+        <v>-0.1892588374766745</v>
       </c>
       <c r="D10">
-        <v>-0.007281750998021887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001468594826694868</v>
+      </c>
+      <c r="E10">
+        <v>-0.04210301896764042</v>
+      </c>
+      <c r="F10">
+        <v>0.03985020655832137</v>
+      </c>
+      <c r="G10">
+        <v>0.00688712879030772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04193405957028798</v>
+        <v>0.0353724127080895</v>
       </c>
       <c r="C11">
-        <v>-0.05444929279704045</v>
+        <v>0.05128085298292956</v>
       </c>
       <c r="D11">
-        <v>0.001998498131680838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03241643790071928</v>
+      </c>
+      <c r="E11">
+        <v>-0.005008056453799897</v>
+      </c>
+      <c r="F11">
+        <v>0.06594615077401168</v>
+      </c>
+      <c r="G11">
+        <v>0.01830121074263706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03526351338428749</v>
+        <v>0.03570573821806449</v>
       </c>
       <c r="C12">
-        <v>-0.0443610955685863</v>
+        <v>0.04644783437861769</v>
       </c>
       <c r="D12">
-        <v>0.001241720460397709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02524173764402977</v>
+      </c>
+      <c r="E12">
+        <v>-0.0130779142115562</v>
+      </c>
+      <c r="F12">
+        <v>0.06695412371667905</v>
+      </c>
+      <c r="G12">
+        <v>0.01357478953329197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0102392194472735</v>
+        <v>0.01126970839344766</v>
       </c>
       <c r="C13">
-        <v>-0.04336445640526592</v>
+        <v>0.04171950647564827</v>
       </c>
       <c r="D13">
-        <v>-0.02136303973075121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06427421184119139</v>
+      </c>
+      <c r="E13">
+        <v>-0.06398337261842152</v>
+      </c>
+      <c r="F13">
+        <v>0.1162655805147054</v>
+      </c>
+      <c r="G13">
+        <v>0.02335833546124435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007032852793534488</v>
+        <v>0.004754066521990339</v>
       </c>
       <c r="C14">
-        <v>-0.03308101113626003</v>
+        <v>0.02893277558427757</v>
       </c>
       <c r="D14">
-        <v>0.01648876142632295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02979035870469173</v>
+      </c>
+      <c r="E14">
+        <v>-0.0241976800141125</v>
+      </c>
+      <c r="F14">
+        <v>0.09849054905549127</v>
+      </c>
+      <c r="G14">
+        <v>-0.003454224264693536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001524727981122891</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001190337711763412</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001743704033284071</v>
+      </c>
+      <c r="E15">
+        <v>0.0001817307487655889</v>
+      </c>
+      <c r="F15">
+        <v>0.000328708327235723</v>
+      </c>
+      <c r="G15">
+        <v>-0.001028008095442591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03443354295776577</v>
+        <v>0.03244829862005989</v>
       </c>
       <c r="C16">
-        <v>-0.04005979985576535</v>
+        <v>0.04474895353454855</v>
       </c>
       <c r="D16">
-        <v>-0.003627793263224069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02790187195961036</v>
+      </c>
+      <c r="E16">
+        <v>-0.01855133596130666</v>
+      </c>
+      <c r="F16">
+        <v>0.07031851792023754</v>
+      </c>
+      <c r="G16">
+        <v>0.004207503923822293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03264194440845977</v>
+        <v>0.01741530388032686</v>
       </c>
       <c r="C19">
-        <v>-0.0586035186149314</v>
+        <v>0.05033298393832843</v>
       </c>
       <c r="D19">
-        <v>-0.07139763259000836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1030989170902223</v>
+      </c>
+      <c r="E19">
+        <v>-0.08519508467189804</v>
+      </c>
+      <c r="F19">
+        <v>0.1069635796630283</v>
+      </c>
+      <c r="G19">
+        <v>-0.01477616486376686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01447465710993561</v>
+        <v>0.01288625197569453</v>
       </c>
       <c r="C20">
-        <v>-0.04344579125124189</v>
+        <v>0.03987384013442451</v>
       </c>
       <c r="D20">
-        <v>-0.01729486625001573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04097677068413891</v>
+      </c>
+      <c r="E20">
+        <v>-0.05542330929149342</v>
+      </c>
+      <c r="F20">
+        <v>0.09292717530499868</v>
+      </c>
+      <c r="G20">
+        <v>0.008546122995911763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009610970750234626</v>
+        <v>0.006068657725956652</v>
       </c>
       <c r="C21">
-        <v>-0.04891067302575054</v>
+        <v>0.04243048274739611</v>
       </c>
       <c r="D21">
-        <v>-0.03887660456965097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06996522906680983</v>
+      </c>
+      <c r="E21">
+        <v>-0.06632624722950707</v>
+      </c>
+      <c r="F21">
+        <v>0.132530368380125</v>
+      </c>
+      <c r="G21">
+        <v>0.009675475018733412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002351386587160952</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01571614175756066</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03035951599683098</v>
+      </c>
+      <c r="E22">
+        <v>-0.01223628868682161</v>
+      </c>
+      <c r="F22">
+        <v>0.01150002380450988</v>
+      </c>
+      <c r="G22">
+        <v>0.03503548924904742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002400963080603018</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01568397820473468</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03004772137915728</v>
+      </c>
+      <c r="E23">
+        <v>-0.01245635560777272</v>
+      </c>
+      <c r="F23">
+        <v>0.01119582327560859</v>
+      </c>
+      <c r="G23">
+        <v>0.0349927151257333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02941913185865006</v>
+        <v>0.03124833252500182</v>
       </c>
       <c r="C24">
-        <v>-0.04637367795057371</v>
+        <v>0.05158747874442465</v>
       </c>
       <c r="D24">
-        <v>0.001643451616026165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02605465071898687</v>
+      </c>
+      <c r="E24">
+        <v>-0.01429827618645597</v>
+      </c>
+      <c r="F24">
+        <v>0.07628596089627421</v>
+      </c>
+      <c r="G24">
+        <v>0.01128184888514608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04676305271040435</v>
+        <v>0.04121962661418495</v>
       </c>
       <c r="C25">
-        <v>-0.05682940217022829</v>
+        <v>0.05820817973459854</v>
       </c>
       <c r="D25">
-        <v>0.01390306062441549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02443062253145608</v>
+      </c>
+      <c r="E25">
+        <v>-0.01051667387550733</v>
+      </c>
+      <c r="F25">
+        <v>0.07843227645756397</v>
+      </c>
+      <c r="G25">
+        <v>0.02877529305418274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009292978684371985</v>
+        <v>0.01317238762624511</v>
       </c>
       <c r="C26">
-        <v>-0.01741080269499155</v>
+        <v>0.01530164348586362</v>
       </c>
       <c r="D26">
-        <v>-0.005019430510931939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0249887150917663</v>
+      </c>
+      <c r="E26">
+        <v>-0.02642782945884872</v>
+      </c>
+      <c r="F26">
+        <v>0.07726294086904922</v>
+      </c>
+      <c r="G26">
+        <v>-0.01056664746851027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09134187578160075</v>
+        <v>0.1344229091110556</v>
       </c>
       <c r="C28">
-        <v>0.2237773680711208</v>
+        <v>-0.2374977283182828</v>
       </c>
       <c r="D28">
-        <v>-0.008737274061361662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01688445852072651</v>
+      </c>
+      <c r="E28">
+        <v>-0.0424930899874448</v>
+      </c>
+      <c r="F28">
+        <v>0.05141169778155909</v>
+      </c>
+      <c r="G28">
+        <v>0.01834353944576276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01175884143268081</v>
+        <v>0.006531045393831991</v>
       </c>
       <c r="C29">
-        <v>-0.02522788919015181</v>
+        <v>0.02477806394296235</v>
       </c>
       <c r="D29">
-        <v>0.0170517475069025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01993146258770988</v>
+      </c>
+      <c r="E29">
+        <v>-0.02738077610819783</v>
+      </c>
+      <c r="F29">
+        <v>0.08823801919407828</v>
+      </c>
+      <c r="G29">
+        <v>0.008211337208520141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0489728585999944</v>
+        <v>0.03719201567533136</v>
       </c>
       <c r="C30">
-        <v>-0.06715325389142829</v>
+        <v>0.0613113466808473</v>
       </c>
       <c r="D30">
-        <v>-0.04401358387553724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1047745910488555</v>
+      </c>
+      <c r="E30">
+        <v>-0.0350237629266099</v>
+      </c>
+      <c r="F30">
+        <v>0.09850667976243355</v>
+      </c>
+      <c r="G30">
+        <v>-0.01501504792493158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04278391694569593</v>
+        <v>0.05344957993766307</v>
       </c>
       <c r="C31">
-        <v>-0.03135628401494887</v>
+        <v>0.04839138434215819</v>
       </c>
       <c r="D31">
-        <v>0.02156305174382021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004434671025393237</v>
+      </c>
+      <c r="E31">
+        <v>-0.04327822072605358</v>
+      </c>
+      <c r="F31">
+        <v>0.08331452583233799</v>
+      </c>
+      <c r="G31">
+        <v>0.04756337309193394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002517280079946111</v>
+        <v>0.002805507627224363</v>
       </c>
       <c r="C32">
-        <v>-0.04550961768150814</v>
+        <v>0.03130816927477957</v>
       </c>
       <c r="D32">
-        <v>-0.02990406946610531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05207944598787016</v>
+      </c>
+      <c r="E32">
+        <v>-0.01921578906776577</v>
+      </c>
+      <c r="F32">
+        <v>0.06680590331763359</v>
+      </c>
+      <c r="G32">
+        <v>-0.007043548485730662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02818760558876541</v>
+        <v>0.02384480338634784</v>
       </c>
       <c r="C33">
-        <v>-0.06249005544194799</v>
+        <v>0.05238745088067324</v>
       </c>
       <c r="D33">
-        <v>-0.02678143733282393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08098210426668129</v>
+      </c>
+      <c r="E33">
+        <v>-0.04797549011970833</v>
+      </c>
+      <c r="F33">
+        <v>0.1301799983573223</v>
+      </c>
+      <c r="G33">
+        <v>0.02753465818610778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05101646108532808</v>
+        <v>0.04063931301499674</v>
       </c>
       <c r="C34">
-        <v>-0.05483163689919047</v>
+        <v>0.06296017299686148</v>
       </c>
       <c r="D34">
-        <v>0.01060212878697375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03287274485481756</v>
+      </c>
+      <c r="E34">
+        <v>0.004614084291775499</v>
+      </c>
+      <c r="F34">
+        <v>0.07563031417121138</v>
+      </c>
+      <c r="G34">
+        <v>0.01640790436253124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008457485084467862</v>
+        <v>0.01447100623652918</v>
       </c>
       <c r="C36">
-        <v>-0.01197631012523852</v>
+        <v>0.0103943249263803</v>
       </c>
       <c r="D36">
-        <v>-0.003190950911111392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02644208195306724</v>
+      </c>
+      <c r="E36">
+        <v>-0.0335661612880931</v>
+      </c>
+      <c r="F36">
+        <v>0.08528786695176871</v>
+      </c>
+      <c r="G36">
+        <v>0.01441861697329901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03397843232491884</v>
+        <v>0.02616329543812489</v>
       </c>
       <c r="C38">
-        <v>-0.02356527060135315</v>
+        <v>0.02394459167971168</v>
       </c>
       <c r="D38">
-        <v>0.0009419863822098319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02629339620057345</v>
+      </c>
+      <c r="E38">
+        <v>-0.0345321797330368</v>
+      </c>
+      <c r="F38">
+        <v>0.07165366882787949</v>
+      </c>
+      <c r="G38">
+        <v>0.01110727016902316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04094915996154167</v>
+        <v>0.03691257926810363</v>
       </c>
       <c r="C39">
-        <v>-0.072006336652224</v>
+        <v>0.06651299914871993</v>
       </c>
       <c r="D39">
-        <v>-0.02265871742861224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05076495414016539</v>
+      </c>
+      <c r="E39">
+        <v>-0.01673057246458745</v>
+      </c>
+      <c r="F39">
+        <v>0.09324584124999448</v>
+      </c>
+      <c r="G39">
+        <v>-0.01313462831946411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01827632015685084</v>
+        <v>0.01644546722685253</v>
       </c>
       <c r="C40">
-        <v>-0.02801856466212124</v>
+        <v>0.03680642204319996</v>
       </c>
       <c r="D40">
-        <v>-0.03742317735344283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03749895156681703</v>
+      </c>
+      <c r="E40">
+        <v>-0.07106427694040658</v>
+      </c>
+      <c r="F40">
+        <v>0.09126321218775001</v>
+      </c>
+      <c r="G40">
+        <v>0.05160646936575904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01043166239706673</v>
+        <v>0.01795222007673566</v>
       </c>
       <c r="C41">
-        <v>-0.003603764778724405</v>
+        <v>0.00371573074140177</v>
       </c>
       <c r="D41">
-        <v>0.003334403939615206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01794396012867055</v>
+      </c>
+      <c r="E41">
+        <v>-0.0353432923436427</v>
+      </c>
+      <c r="F41">
+        <v>0.07520155305968686</v>
+      </c>
+      <c r="G41">
+        <v>0.006942033528580274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.005592598509997351</v>
+        <v>0.002798969396295086</v>
       </c>
       <c r="C42">
-        <v>-0.0186019829760855</v>
+        <v>0.01027048745545968</v>
       </c>
       <c r="D42">
-        <v>-0.001058877000131583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00227871783015627</v>
+      </c>
+      <c r="E42">
+        <v>-0.005371939775836857</v>
+      </c>
+      <c r="F42">
+        <v>-0.01257607698085497</v>
+      </c>
+      <c r="G42">
+        <v>0.009911762671459956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03133951759270205</v>
+        <v>0.03037395394136419</v>
       </c>
       <c r="C43">
-        <v>-0.01707008163720317</v>
+        <v>0.01922807429096465</v>
       </c>
       <c r="D43">
-        <v>-0.004182551492795971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04117152184069221</v>
+      </c>
+      <c r="E43">
+        <v>-0.03989533107792981</v>
+      </c>
+      <c r="F43">
+        <v>0.09029313717882398</v>
+      </c>
+      <c r="G43">
+        <v>0.02855953287374622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02151844246546939</v>
+        <v>0.01519246780642558</v>
       </c>
       <c r="C44">
-        <v>-0.05412594535546385</v>
+        <v>0.05112166757206583</v>
       </c>
       <c r="D44">
-        <v>-0.0166712060245802</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04125288749258617</v>
+      </c>
+      <c r="E44">
+        <v>-0.05735122149311001</v>
+      </c>
+      <c r="F44">
+        <v>0.0969969740859636</v>
+      </c>
+      <c r="G44">
+        <v>0.003495402604896372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-6.683569465088959e-05</v>
+        <v>0.006919238929038697</v>
       </c>
       <c r="C46">
-        <v>-0.0191540846696337</v>
+        <v>0.02273387878939867</v>
       </c>
       <c r="D46">
-        <v>0.01668504311005036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01363176969388072</v>
+      </c>
+      <c r="E46">
+        <v>-0.03115719664322279</v>
+      </c>
+      <c r="F46">
+        <v>0.1032756109826211</v>
+      </c>
+      <c r="G46">
+        <v>0.00416320912243248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07750876029260662</v>
+        <v>0.08508744260551902</v>
       </c>
       <c r="C47">
-        <v>-0.07159630169561945</v>
+        <v>0.07985964140412048</v>
       </c>
       <c r="D47">
-        <v>0.01584771224889753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01310197425015444</v>
+      </c>
+      <c r="E47">
+        <v>-0.04857277717640884</v>
+      </c>
+      <c r="F47">
+        <v>0.08061760770179568</v>
+      </c>
+      <c r="G47">
+        <v>0.05138834729376241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01971630526914806</v>
+        <v>0.01581990952202652</v>
       </c>
       <c r="C48">
-        <v>-0.01088701587581375</v>
+        <v>0.01507727748857166</v>
       </c>
       <c r="D48">
-        <v>0.002514324538111048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.017260862881226</v>
+      </c>
+      <c r="E48">
+        <v>-0.04292872636560014</v>
+      </c>
+      <c r="F48">
+        <v>0.09859896021501438</v>
+      </c>
+      <c r="G48">
+        <v>0.01198264328594316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08855906776614716</v>
+        <v>0.07133495063078685</v>
       </c>
       <c r="C50">
-        <v>-0.06510174165375161</v>
+        <v>0.06924329818494608</v>
       </c>
       <c r="D50">
-        <v>0.02508006421026654</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00201782480078877</v>
+      </c>
+      <c r="E50">
+        <v>-0.04741438915673403</v>
+      </c>
+      <c r="F50">
+        <v>0.06933195670944292</v>
+      </c>
+      <c r="G50">
+        <v>0.07898206976769348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01238734102698689</v>
+        <v>0.009776838734953969</v>
       </c>
       <c r="C51">
-        <v>-0.04779227540630082</v>
+        <v>0.03396609194468191</v>
       </c>
       <c r="D51">
-        <v>-0.005963029431717262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04754971562318588</v>
+      </c>
+      <c r="E51">
+        <v>-0.02019088909810724</v>
+      </c>
+      <c r="F51">
+        <v>0.08953704411378763</v>
+      </c>
+      <c r="G51">
+        <v>-0.01116631629640203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09563343064397239</v>
+        <v>0.09011017287734507</v>
       </c>
       <c r="C53">
-        <v>-0.07317667925545428</v>
+        <v>0.0870178418127272</v>
       </c>
       <c r="D53">
-        <v>0.03908706231039567</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03827294491457367</v>
+      </c>
+      <c r="E53">
+        <v>-0.04890915352058475</v>
+      </c>
+      <c r="F53">
+        <v>0.08760082153168472</v>
+      </c>
+      <c r="G53">
+        <v>0.0609286971704194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02948605606031763</v>
+        <v>0.02756203212522918</v>
       </c>
       <c r="C54">
-        <v>-0.01665326436966891</v>
+        <v>0.02619522076985311</v>
       </c>
       <c r="D54">
-        <v>-0.003499659936722343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03565465395499956</v>
+      </c>
+      <c r="E54">
+        <v>-0.03519549294035414</v>
+      </c>
+      <c r="F54">
+        <v>0.09675227466369112</v>
+      </c>
+      <c r="G54">
+        <v>0.00737351172175071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07460885486995086</v>
+        <v>0.08139871962089068</v>
       </c>
       <c r="C55">
-        <v>-0.06911736478673823</v>
+        <v>0.07124813088103593</v>
       </c>
       <c r="D55">
-        <v>0.04570741675036922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04632679984859539</v>
+      </c>
+      <c r="E55">
+        <v>-0.03998520964839996</v>
+      </c>
+      <c r="F55">
+        <v>0.06159556408559294</v>
+      </c>
+      <c r="G55">
+        <v>0.05033687585403616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1491528788746206</v>
+        <v>0.1435411593725388</v>
       </c>
       <c r="C56">
-        <v>-0.0929209326191192</v>
+        <v>0.1053465147919194</v>
       </c>
       <c r="D56">
-        <v>0.05038335707514103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04898763851768503</v>
+      </c>
+      <c r="E56">
+        <v>-0.04659109561486354</v>
+      </c>
+      <c r="F56">
+        <v>0.05141904352046205</v>
+      </c>
+      <c r="G56">
+        <v>0.05704976286800999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005487829279381911</v>
+        <v>0.002366917838720662</v>
       </c>
       <c r="C57">
-        <v>-0.00202698266845678</v>
+        <v>0.001192115988582469</v>
       </c>
       <c r="D57">
-        <v>-0.02094605870285784</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01654831229738771</v>
+      </c>
+      <c r="E57">
+        <v>-0.00920470150379064</v>
+      </c>
+      <c r="F57">
+        <v>0.01393930563433971</v>
+      </c>
+      <c r="G57">
+        <v>0.003472692689058893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06678245585218445</v>
+        <v>0.03266870329339747</v>
       </c>
       <c r="C58">
-        <v>-0.03788191294378869</v>
+        <v>0.03036818429909105</v>
       </c>
       <c r="D58">
-        <v>-0.916288597805808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4958336099401484</v>
+      </c>
+      <c r="E58">
+        <v>-0.6949852868548591</v>
+      </c>
+      <c r="F58">
+        <v>-0.4315203841759228</v>
+      </c>
+      <c r="G58">
+        <v>-0.06795750826007577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1330618952005739</v>
+        <v>0.148968771106919</v>
       </c>
       <c r="C59">
-        <v>0.2040728608800667</v>
+        <v>-0.1886952005617212</v>
       </c>
       <c r="D59">
-        <v>-0.02024316394568937</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02940983298780884</v>
+      </c>
+      <c r="E59">
+        <v>-0.0222334126961183</v>
+      </c>
+      <c r="F59">
+        <v>0.02223382915101233</v>
+      </c>
+      <c r="G59">
+        <v>-0.0316290293522739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3171949975253955</v>
+        <v>0.2822080808955788</v>
       </c>
       <c r="C60">
-        <v>-0.08411525229728231</v>
+        <v>0.1001562816365326</v>
       </c>
       <c r="D60">
-        <v>-0.04772661597342513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2113419334979702</v>
+      </c>
+      <c r="E60">
+        <v>0.2762156984711311</v>
+      </c>
+      <c r="F60">
+        <v>-0.1260905279154853</v>
+      </c>
+      <c r="G60">
+        <v>0.04483634148541714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03691340396069098</v>
+        <v>0.03906795086751842</v>
       </c>
       <c r="C61">
-        <v>-0.06119591927315295</v>
+        <v>0.06060047831126114</v>
       </c>
       <c r="D61">
-        <v>-0.01378317236071151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04675550664511576</v>
+      </c>
+      <c r="E61">
+        <v>-0.02184062746820928</v>
+      </c>
+      <c r="F61">
+        <v>0.08253259770577118</v>
+      </c>
+      <c r="G61">
+        <v>0.01585552390170644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01616990209462712</v>
+        <v>0.01509032586440985</v>
       </c>
       <c r="C63">
-        <v>-0.03278932722134342</v>
+        <v>0.03045306593459586</v>
       </c>
       <c r="D63">
-        <v>0.007444904617961779</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02086067976870782</v>
+      </c>
+      <c r="E63">
+        <v>-0.03648675931078878</v>
+      </c>
+      <c r="F63">
+        <v>0.07670722614232578</v>
+      </c>
+      <c r="G63">
+        <v>0.03137689713700608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04893261930334048</v>
+        <v>0.05353229975657121</v>
       </c>
       <c r="C64">
-        <v>-0.02735331816755897</v>
+        <v>0.04911693696012345</v>
       </c>
       <c r="D64">
-        <v>0.005503898743482331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01384543535620843</v>
+      </c>
+      <c r="E64">
+        <v>-0.01823812142355243</v>
+      </c>
+      <c r="F64">
+        <v>0.09275053330320017</v>
+      </c>
+      <c r="G64">
+        <v>0.008270610218352266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09205924464310997</v>
+        <v>0.06708258176006755</v>
       </c>
       <c r="C65">
-        <v>-0.0492961795424414</v>
+        <v>0.04116910763176088</v>
       </c>
       <c r="D65">
-        <v>-0.02694885272738198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08231066409246306</v>
+      </c>
+      <c r="E65">
+        <v>-0.03526797949914738</v>
+      </c>
+      <c r="F65">
+        <v>0.02654074367524762</v>
+      </c>
+      <c r="G65">
+        <v>-0.003314348772422537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06434592710549583</v>
+        <v>0.04985104223341719</v>
       </c>
       <c r="C66">
-        <v>-0.1077212455718845</v>
+        <v>0.09062988792474044</v>
       </c>
       <c r="D66">
-        <v>-0.02832742292133066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07668534760081909</v>
+      </c>
+      <c r="E66">
+        <v>-0.02051651956679415</v>
+      </c>
+      <c r="F66">
+        <v>0.09365000345011533</v>
+      </c>
+      <c r="G66">
+        <v>0.006298557258683375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05880648776525409</v>
+        <v>0.04869885808523396</v>
       </c>
       <c r="C67">
-        <v>-0.02858592927832468</v>
+        <v>0.02976443487104643</v>
       </c>
       <c r="D67">
-        <v>0.007920686312020465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01405120698387342</v>
+      </c>
+      <c r="E67">
+        <v>-0.02000011449318586</v>
+      </c>
+      <c r="F67">
+        <v>0.05853176890555939</v>
+      </c>
+      <c r="G67">
+        <v>0.01540245685251481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1185416297851107</v>
+        <v>0.1571625532377057</v>
       </c>
       <c r="C68">
-        <v>0.2914444754984583</v>
+        <v>-0.2577574057970667</v>
       </c>
       <c r="D68">
-        <v>0.002108263820423869</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02190475627821262</v>
+      </c>
+      <c r="E68">
+        <v>-0.03720576612922593</v>
+      </c>
+      <c r="F68">
+        <v>0.01887870960029832</v>
+      </c>
+      <c r="G68">
+        <v>0.00593235678781875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08647412462120123</v>
+        <v>0.08503250067089461</v>
       </c>
       <c r="C69">
-        <v>-0.06750148828446759</v>
+        <v>0.08434212969126327</v>
       </c>
       <c r="D69">
-        <v>0.04413537783719505</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009240563539807099</v>
+      </c>
+      <c r="E69">
+        <v>-0.02285518964829474</v>
+      </c>
+      <c r="F69">
+        <v>0.09501265697436194</v>
+      </c>
+      <c r="G69">
+        <v>0.02854102553297117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1196611303042779</v>
+        <v>0.1452334674488811</v>
       </c>
       <c r="C71">
-        <v>0.2426980397525238</v>
+        <v>-0.2321812577996118</v>
       </c>
       <c r="D71">
-        <v>-0.01181579469458402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01191892953600651</v>
+      </c>
+      <c r="E71">
+        <v>-0.05512627001368987</v>
+      </c>
+      <c r="F71">
+        <v>0.05626377247554528</v>
+      </c>
+      <c r="G71">
+        <v>0.02872054686604099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08414497153227193</v>
+        <v>0.09454573623266659</v>
       </c>
       <c r="C72">
-        <v>-0.04833179542298878</v>
+        <v>0.05396038934831476</v>
       </c>
       <c r="D72">
-        <v>0.0209888340049455</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01756339180665331</v>
+      </c>
+      <c r="E72">
+        <v>-0.006804402050396795</v>
+      </c>
+      <c r="F72">
+        <v>0.0764500168917058</v>
+      </c>
+      <c r="G72">
+        <v>0.02307331552353879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4423218807400246</v>
+        <v>0.3491169765226093</v>
       </c>
       <c r="C73">
-        <v>-0.06611901321952192</v>
+        <v>0.08346378372721536</v>
       </c>
       <c r="D73">
-        <v>-0.1381294691210578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4299436800380169</v>
+      </c>
+      <c r="E73">
+        <v>0.4760335422644344</v>
+      </c>
+      <c r="F73">
+        <v>-0.3044611797911181</v>
+      </c>
+      <c r="G73">
+        <v>0.08962596840930416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1173172488730482</v>
+        <v>0.1110599402347403</v>
       </c>
       <c r="C74">
-        <v>-0.1164973664984889</v>
+        <v>0.1027213108310345</v>
       </c>
       <c r="D74">
-        <v>0.04399319060394077</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02766680624304821</v>
+      </c>
+      <c r="E74">
+        <v>-0.06757620832980508</v>
+      </c>
+      <c r="F74">
+        <v>0.06284226437423278</v>
+      </c>
+      <c r="G74">
+        <v>0.07428742154356859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2603794991080838</v>
+        <v>0.2551626117816669</v>
       </c>
       <c r="C75">
-        <v>-0.1298510815511704</v>
+        <v>0.1442517239531674</v>
       </c>
       <c r="D75">
-        <v>0.08933281198794145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.127737611948166</v>
+      </c>
+      <c r="E75">
+        <v>-0.08194442130960551</v>
+      </c>
+      <c r="F75">
+        <v>0.0270847415851952</v>
+      </c>
+      <c r="G75">
+        <v>0.07497201364848266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.119660579166284</v>
+        <v>0.1269014569266907</v>
       </c>
       <c r="C76">
-        <v>-0.1047546602822002</v>
+        <v>0.1062351654283915</v>
       </c>
       <c r="D76">
-        <v>0.05973657216730113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06127925053225453</v>
+      </c>
+      <c r="E76">
+        <v>-0.06939806347335488</v>
+      </c>
+      <c r="F76">
+        <v>0.06874780973467443</v>
+      </c>
+      <c r="G76">
+        <v>0.06281814713086406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07426873780742879</v>
+        <v>0.06056647174721247</v>
       </c>
       <c r="C77">
-        <v>-0.05852321140388781</v>
+        <v>0.0699837950730607</v>
       </c>
       <c r="D77">
-        <v>-0.05037473276481386</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06327884327788542</v>
+      </c>
+      <c r="E77">
+        <v>-0.06297347433244081</v>
+      </c>
+      <c r="F77">
+        <v>0.1206627716408653</v>
+      </c>
+      <c r="G77">
+        <v>-0.125147743940667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04281740031139147</v>
+        <v>0.03993155538815903</v>
       </c>
       <c r="C78">
-        <v>-0.04340356018568239</v>
+        <v>0.05444630443056269</v>
       </c>
       <c r="D78">
-        <v>-0.01966944420140468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07022798650904952</v>
+      </c>
+      <c r="E78">
+        <v>-0.01372615076683938</v>
+      </c>
+      <c r="F78">
+        <v>0.09513388302265549</v>
+      </c>
+      <c r="G78">
+        <v>0.01001257579088278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01290162135115514</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03214352498873414</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0463719955475238</v>
+      </c>
+      <c r="E79">
+        <v>-0.03318401611402842</v>
+      </c>
+      <c r="F79">
+        <v>0.02271718836497664</v>
+      </c>
+      <c r="G79">
+        <v>0.04160296276975343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04983579052403665</v>
+        <v>0.03697569887856594</v>
       </c>
       <c r="C80">
-        <v>-0.05023395486941788</v>
+        <v>0.04826000081260834</v>
       </c>
       <c r="D80">
-        <v>-0.0412937491556347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04405198054740476</v>
+      </c>
+      <c r="E80">
+        <v>-0.01377982726758741</v>
+      </c>
+      <c r="F80">
+        <v>0.03653429706556951</v>
+      </c>
+      <c r="G80">
+        <v>-0.04026211330248527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1390857010080431</v>
+        <v>0.1392374605253214</v>
       </c>
       <c r="C81">
-        <v>-0.08115912520542225</v>
+        <v>0.09961471215040731</v>
       </c>
       <c r="D81">
-        <v>0.04887625575334351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09137103770803788</v>
+      </c>
+      <c r="E81">
+        <v>-0.07998529101192131</v>
+      </c>
+      <c r="F81">
+        <v>0.0286536316163238</v>
+      </c>
+      <c r="G81">
+        <v>0.0582484331019503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0724297876647774</v>
+        <v>0.1897283616631963</v>
       </c>
       <c r="C82">
-        <v>-0.04594954104610123</v>
+        <v>0.1397225457517363</v>
       </c>
       <c r="D82">
-        <v>0.02908945577626226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2221526952001891</v>
+      </c>
+      <c r="E82">
+        <v>-0.006682565536620444</v>
+      </c>
+      <c r="F82">
+        <v>0.07608022604972706</v>
+      </c>
+      <c r="G82">
+        <v>0.03142659786322399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0266933356263934</v>
+        <v>0.02633421662748785</v>
       </c>
       <c r="C83">
-        <v>-0.01966143162420838</v>
+        <v>0.03613931243818641</v>
       </c>
       <c r="D83">
-        <v>-0.02022800909621924</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03444064838050784</v>
+      </c>
+      <c r="E83">
+        <v>-0.006764803625530834</v>
+      </c>
+      <c r="F83">
+        <v>0.05213623920451763</v>
+      </c>
+      <c r="G83">
+        <v>-0.02155478758483369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2395476108204379</v>
+        <v>0.2053190582941098</v>
       </c>
       <c r="C85">
-        <v>-0.1181086063610673</v>
+        <v>0.1277535658870451</v>
       </c>
       <c r="D85">
-        <v>0.1597939790389467</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1089493796494445</v>
+      </c>
+      <c r="E85">
+        <v>-0.005919580955998358</v>
+      </c>
+      <c r="F85">
+        <v>-0.01774226924344896</v>
+      </c>
+      <c r="G85">
+        <v>0.123022130669518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01025992175270489</v>
+        <v>0.01092843577926632</v>
       </c>
       <c r="C86">
-        <v>-0.02589849462395818</v>
+        <v>0.03338284473184532</v>
       </c>
       <c r="D86">
-        <v>-0.0387457906362787</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07757164055914778</v>
+      </c>
+      <c r="E86">
+        <v>-0.04488086009054111</v>
+      </c>
+      <c r="F86">
+        <v>0.1447258117534894</v>
+      </c>
+      <c r="G86">
+        <v>-0.003430507548522322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01451703357248941</v>
+        <v>0.01954285253050041</v>
       </c>
       <c r="C87">
-        <v>-0.02431078889127845</v>
+        <v>0.01916633066410512</v>
       </c>
       <c r="D87">
-        <v>-0.08819803940910852</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09074419065652213</v>
+      </c>
+      <c r="E87">
+        <v>-0.08085587561896886</v>
+      </c>
+      <c r="F87">
+        <v>0.09814201024174989</v>
+      </c>
+      <c r="G87">
+        <v>-0.03043260426623862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1020550785951732</v>
+        <v>0.08781911214568028</v>
       </c>
       <c r="C88">
-        <v>-0.07170193631781292</v>
+        <v>0.06442673535457534</v>
       </c>
       <c r="D88">
-        <v>0.0178216337091563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01333445151807514</v>
+      </c>
+      <c r="E88">
+        <v>-0.0288504185171427</v>
+      </c>
+      <c r="F88">
+        <v>0.07387064807160686</v>
+      </c>
+      <c r="G88">
+        <v>-0.02864593118192114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1889377294087043</v>
+        <v>0.2278161254282115</v>
       </c>
       <c r="C89">
-        <v>0.3767236065610674</v>
+        <v>-0.3771403069665348</v>
       </c>
       <c r="D89">
-        <v>0.02896447549388451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02208874392608475</v>
+      </c>
+      <c r="E89">
+        <v>-0.02890888432282747</v>
+      </c>
+      <c r="F89">
+        <v>0.09872881133619502</v>
+      </c>
+      <c r="G89">
+        <v>-0.06746835847968451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1750733925959284</v>
+        <v>0.2062215343026501</v>
       </c>
       <c r="C90">
-        <v>0.3492539167246633</v>
+        <v>-0.3160947301530531</v>
       </c>
       <c r="D90">
-        <v>-0.000271509123079249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01516976736519818</v>
+      </c>
+      <c r="E90">
+        <v>-0.06020342737015145</v>
+      </c>
+      <c r="F90">
+        <v>0.05187912637777693</v>
+      </c>
+      <c r="G90">
+        <v>-0.01350582561997453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2028200313969034</v>
+        <v>0.1893455316757764</v>
       </c>
       <c r="C91">
-        <v>-0.1145014854748903</v>
+        <v>0.1414791674129969</v>
       </c>
       <c r="D91">
-        <v>0.07662068961356494</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1043667340783917</v>
+      </c>
+      <c r="E91">
+        <v>-0.07255550556632216</v>
+      </c>
+      <c r="F91">
+        <v>0.04649454414081942</v>
+      </c>
+      <c r="G91">
+        <v>0.06205787758890641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1673599915851486</v>
+        <v>0.1868374224787036</v>
       </c>
       <c r="C92">
-        <v>0.28218374385909</v>
+        <v>-0.2765950337892772</v>
       </c>
       <c r="D92">
-        <v>0.02969738898233025</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01036463131437966</v>
+      </c>
+      <c r="E92">
+        <v>-0.07149729646367368</v>
+      </c>
+      <c r="F92">
+        <v>0.07575660028201947</v>
+      </c>
+      <c r="G92">
+        <v>-0.007807941327744048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1955188560618059</v>
+        <v>0.2293382519675628</v>
       </c>
       <c r="C93">
-        <v>0.3427915116627848</v>
+        <v>-0.316307515557482</v>
       </c>
       <c r="D93">
-        <v>0.0005146064326634159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004376160317448443</v>
+      </c>
+      <c r="E93">
+        <v>-0.05036325419067592</v>
+      </c>
+      <c r="F93">
+        <v>0.04801997982682599</v>
+      </c>
+      <c r="G93">
+        <v>0.02867839400809881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2871741478854029</v>
+        <v>0.3394603456086552</v>
       </c>
       <c r="C94">
-        <v>-0.1485217595771809</v>
+        <v>0.2011108238213768</v>
       </c>
       <c r="D94">
-        <v>0.1679306101630532</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4733180982154644</v>
+      </c>
+      <c r="E94">
+        <v>-0.1695044994759358</v>
+      </c>
+      <c r="F94">
+        <v>-0.4299384919914783</v>
+      </c>
+      <c r="G94">
+        <v>-0.3174677710868355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08766652561202715</v>
+        <v>0.08166008686580595</v>
       </c>
       <c r="C95">
-        <v>-0.07605107273885515</v>
+        <v>0.07797224720554946</v>
       </c>
       <c r="D95">
-        <v>-0.06872950274815572</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1518600906131284</v>
+      </c>
+      <c r="E95">
+        <v>0.1374937915349497</v>
+      </c>
+      <c r="F95">
+        <v>0.2125622254842802</v>
+      </c>
+      <c r="G95">
+        <v>-0.8737416986140353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2069125609930474</v>
+        <v>0.1895431272488546</v>
       </c>
       <c r="C98">
-        <v>-0.02028949875265159</v>
+        <v>0.0402321130143183</v>
       </c>
       <c r="D98">
-        <v>-0.06753597745528192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1757842152924502</v>
+      </c>
+      <c r="E98">
+        <v>0.1536828029739989</v>
+      </c>
+      <c r="F98">
+        <v>-0.04741778862478404</v>
+      </c>
+      <c r="G98">
+        <v>0.1051479796155762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01144551870887509</v>
+        <v>0.006402900403088043</v>
       </c>
       <c r="C101">
-        <v>-0.02534002086832313</v>
+        <v>0.0245288264761848</v>
       </c>
       <c r="D101">
-        <v>0.01735818540076399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01927867312877751</v>
+      </c>
+      <c r="E101">
+        <v>-0.02789132866574322</v>
+      </c>
+      <c r="F101">
+        <v>0.08781399433563909</v>
+      </c>
+      <c r="G101">
+        <v>0.007275359023895858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1213254521202579</v>
+        <v>0.1214679743663228</v>
       </c>
       <c r="C102">
-        <v>-0.07376142595224791</v>
+        <v>0.1009723657079584</v>
       </c>
       <c r="D102">
-        <v>0.04491437690496443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0501915387737545</v>
+      </c>
+      <c r="E102">
+        <v>0.01088653561118549</v>
+      </c>
+      <c r="F102">
+        <v>0.03765531494155591</v>
+      </c>
+      <c r="G102">
+        <v>0.02482242825885163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
